--- a/courses/excel/onshore/coe/aibt/BESPOKE_GRAMMAR_SCHOOL_OF_ENGLISH.xlsx
+++ b/courses/excel/onshore/coe/aibt/BESPOKE_GRAMMAR_SCHOOL_OF_ENGLISH.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/courses/courses/excel/onshore/coe/aibt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelon\Documents\Code\ViskeeConsultancy\Viskee-Consultancy-Configuration\courses\excel\onshore\coe\aibt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_C90BF2A8750F73CF3F04193D4A9DBCF4AFE1CC54" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4F8BEA5-632F-4812-BC0E-AF254C5033A4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,12 +103,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -117,13 +116,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -433,35 +432,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>23</v>
       </c>
